--- a/results/over_time_med.xlsx
+++ b/results/over_time_med.xlsx
@@ -522,55 +522,55 @@
         <v>43107.184</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>токсемии, неинвазивные, ожоговой, неопластических, плоского</t>
+          <t>фармакологических, привкусом, ринитов, биснафтазарина, кровезаменитель</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
         <v>43107.184</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>слои, интравертебрального, ножки, спрессованный, сшивающим</t>
+          <t>амбулаторная, гидрораспределителем, санитарной, переключающий, газоведущего</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
         <v>43107.184</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>пероральном, трупной, полуфабрикатов, идентифицированные, плацентарной</t>
+          <t>пластическим, антростомы, мошоночным, эндоскопическим, преддверия</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
         <v>43107.184</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>гиалуронидазы, моностеароил, сиалированных, гликопротеинов, глицерофосфатидилхолина</t>
+          <t>ретинального, красного, плоского, лишая, sqstm1</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
         <v>43107.184</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>локальные, антибиотические, эвтектического, антибактериальный, стабилизированный</t>
+          <t>микобактериального, гибридизация, пептидомиметические, гетероолигомерных, steap1</t>
         </is>
       </c>
     </row>
@@ -582,44 +582,44 @@
         <v>43199.8</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ятрогенного, полифакторной, метеообусловленных, баротерапии, cmv</t>
+          <t>барды, успокоительный, послеспиртовой, гастроэнтерологии, гипофизом</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>43199.8</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>алеолярного, биодеградируемого, вправления, отформованный, центролатеральном</t>
+          <t>среду, текучую, поглощающим, дренажное, каналы</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>43199.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>гастроэнтерита, химиопрофилактики, антигельминтные, гепатозов, послеродовых</t>
+          <t>пострадавшего, пилоропластики, пилорического, спайкообразования, шмидена</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
         <v>43199.8</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>энтеропатии, декстраном, олигомера, метакриловых, сульфатированного</t>
+          <t>бруцеллезом, хантингтона, макулы, отеком, сопровождающегося</t>
         </is>
       </c>
       <c r="N3" s="2" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>металло, лактамазу, карбапенемам, продуцирующих, антимикробная</t>
+          <t>томсена, ang2, фриденрайха, антигену, гуманизированные</t>
         </is>
       </c>
     </row>
@@ -642,11 +642,11 @@
         <v>43290.6</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>преждевременной, бефирадолом, новообразованиями, болевых, иммуногенетических</t>
+          <t>большую, антиперспирантов, рукапариба, дозу, senegalense</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>поэтапным, раздвиганием, кейдж, межпозвонковый, имплантации</t>
+          <t>акватории, состояния, оценки, насос, текучей</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -668,29 +668,29 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>иммунобиохимического, глазная, рысистых, телязиоза, послеродовых</t>
+          <t>сквозных, эпидурита, показаниях, гематораксом, свернувшимся</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
+        <v>43290.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>депривационной, цис, кломифена, андрогенной, приливов</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>43381.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>лубриканта, поперечносшитой, гонадотропный, карбоксиметилцеллюлозы, филлер</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>43290.6</v>
-      </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>termophilus, молочнокислой, антибиотикочувствительности, культуру, кормовой</t>
+          <t>антител, антитело, состав, составы, содержащий</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         <v>43381.4</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>интраэпителиальных, неоплазий, орофарингеального, панавира, онкогенного</t>
+          <t>ухо, низкодозовая, продукцию, лобеглитазон, биоцидным</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -717,40 +717,40 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сращения, межпозвонковый, раздвижной, роговичная, вкладка</t>
+          <t>раздачи, структурах, видеоэндоскопического, летучей, вспышкой</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>43381.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>нечеловекообразных, вуран, дуст, маллофагоза, непереносимости</t>
+          <t>формирующих, крыши, подвздошная, поражениях, лонная</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
+        <v>43381.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>стенотической, гоше, витилиго, крона, болезни</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>43472.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>микроструктура, эфиром, прививка, кислоте, амидными</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>43381.4</v>
-      </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>альгинатные, акинетобактерий, олигомеры, преодолении, антибиотиками</t>
+          <t>h7cr, adam17, pvrig, гуманизированное, tnf</t>
         </is>
       </c>
     </row>
@@ -762,55 +762,55 @@
         <v>43472.2</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sirt, транскрипта, антисмыслового, сиртуином, сиртуину</t>
+          <t>гетерогенного, бромелайна, cocos, poria, кожицы</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
         <v>43472.2</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>пгк, рассасывающийся, лоскут, импланты, пластический</t>
+          <t>длинномерных, прокатного, выбросов, стана, ею</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>43472.2</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>применении, продуктивности, ветеринарное, диарейного, кератоконъюнктивита</t>
+          <t>неба, расщелиной, съемный, мелкокистозной, гнусавости</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
+        <v>43472.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>дивертикулеза, глиом, онкотермия, электротерапия, гипертермическая</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
         <v>43563</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>офтальмического, гликозаминогликана, инъецируемый, дрожжевой, глицерин</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>43472.2</v>
-      </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>реагент, грам, антибиотика, антибактериальный, положительных</t>
+          <t>аматоксин, терапевтические, антитело, конъюгаты, антитела</t>
         </is>
       </c>
     </row>
@@ -826,18 +826,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>уриказы, халикова, центров, эмпиемы, катаплексии</t>
+          <t>цитрусовых, кремах, антацидах, жидкостях, суспензиях</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>43563</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>пиления, ортогнатический, композитный, имплантатов, установки</t>
+          <t>грязелечения, безопасно, трехходового, механизмами, стентом</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -848,29 +848,29 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>псороптоза, кроликов, отодектоза, плотоядных, домашней</t>
+          <t>аллопластики, норвуда, иглорефлексотерапии, трещинах, анального</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>43653.8</v>
+        <v>43563</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1глюкагона, ликера, коньюгат, лиофилизированный, hgf</t>
+          <t>неумывакина, уриказы, профессора, последовательности, очищения</t>
         </is>
       </c>
       <c r="N7" s="2" t="n">
-        <v>43563</v>
+        <v>43653.8</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>антибактериальные, непередающейся, бифидобактерий, одновременным, показание</t>
+          <t>гиперфосфорилированному, льюисаа, ifnar1, сиалированного, apdc</t>
         </is>
       </c>
     </row>
@@ -886,18 +886,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>калькулезного, дуоденальной, евстахиевой, холецистита, колитов</t>
+          <t>рабепразола, bet, лактамы, мозаприда, твёрдый</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
         <v>43653.8</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>кристаллического, галлий, выполненные, имплантируемого, ортопедический</t>
+          <t>сцепная, атриовентрикулярный, экструзионная, гидравлическая, гидрораспределителя</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -908,29 +908,29 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>лизобактин, коровьего, глюкозидгидролазы, нематодозов, октадекан</t>
+          <t>трещин, анальных, кифозов, фасциоза, незаживающих</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
+        <v>43653.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>красных, хлорита, колитов, витилиго, кровяных</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>43744.6</v>
       </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>гидрофобизованный, флуоресцентный, высокоэластичными, гиалуроновой, конъюгат</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>43653.8</v>
-      </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>перекись, alkalina, emericellopsis, bilanenko, acnes</t>
+          <t>такому, 5t4, способу, белкового, полученный</t>
         </is>
       </c>
     </row>
@@ -942,55 +942,55 @@
         <v>43744.6</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23, сенсоневральной, прогноз, смешанной, тугоухостью</t>
+          <t>баклофен, противофиброзных, токсинов, гемосовместимый, местноанестезирующим</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
         <v>43744.6</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>циркуляцию, межсегментарной, дугоотростчатого, восполняющий, спинальная</t>
+          <t>шланга, трубочное, двухпортовое, схемная, зажима</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>43744.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>родах, электромеханическое, лактации, вымени, оповещения</t>
+          <t>герниопротеза, маммопластики, герниопластики, карапетяну, альвеолярном</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
+        <v>43744.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>дислипидемии, смешанной, используя, аксиального, нерентгенографического</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>43835.4</v>
       </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>глутаминилциклаз, таковые, таковых, гвайфенезина, гликозидные</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>43744.6</v>
-      </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>лизина, стафилококковых, присутствии, ингибирует, антибактериальной</t>
+          <t>клаудину, новые, антитела, их, применения</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,22 @@
         <v>43835.4</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>замка, gabaa, пальмарно, шегрена, эритродизестезии</t>
+          <t>изомеров, эзомепразол, ботулотоксинов, трабектедин, вазопрессинподобным</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
         <v>43835.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>текстильный, имплантируемый, фиксатор, имплантата, шприц</t>
+          <t>продувки, ингаляторе, трубки, объемный, многократного</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1028,29 +1028,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>импульсным, диспепсии, резонансным, частотно, вымени</t>
+          <t>шванном, головокружения, резцовой, web, вестибулярных</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
+        <v>43835.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>вазоконстрикцией, gabaa, шегрена, использовать, можно</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
         <v>43926.2</v>
       </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>конъюгированное, пальмитиновой, gnrh, пролонгированного, кислотой</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>43835.4</v>
-      </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>бактериальных, инфекций, фармацевтические, композиции, лечения</t>
+          <t>трихинеллы, шагаса, пэгилированный, фрн, античеловеческого</t>
         </is>
       </c>
     </row>
@@ -1062,55 +1062,55 @@
         <v>43926.2</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>однократного, sibirica, омл, fimh, невралгии</t>
+          <t>ректальных, суппозиториев, протравочное, коллоидное, куркумы</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
         <v>43926.2</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>цилиндрическим, бионические, спекания, раскладной, трубкой</t>
+          <t>ограничитель, наконечники, каналов, потока, использования</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>43926.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>запуске, инволюции, кровезаменителя, консорциумов, гипотензивным</t>
+          <t>гипопаратиреоза, тонкокишечных, гемэксфузии, капиллярной, вакуумным</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
+        <v>43926.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>sibirica, rickettsia, rara, subsp, омл</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
         <v>44017</v>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>сшитой, гидроксиапатита, поперечно, нити, гиалуроновой</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>43926.2</v>
-      </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>антибактериальных, микроразбавления, монобактамовые, амикумацин, минимальной</t>
+          <t>высокоплотным, фактору, вирусоподобные, гуманизированные, покрытием</t>
         </is>
       </c>
     </row>
@@ -1122,55 +1122,55 @@
         <v>44017</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>спаечной, ecm, гиршпрунга, нутра, нутрицевтических</t>
+          <t>грамицидина, восстановленную, текучее, препаративная, очищенного</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
         <v>44017</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>усиленный, структурирования, волокном, биорассасывающийся, дентальных</t>
+          <t>трубок, деламинации, памятью, наполнения, зависящего</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>44017</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>человеческом, циркадноадаптационная, микробиоценозов, эшерихиозов, экологию</t>
+          <t>оказанием, объему, предоперационных, страхов, ампутации</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
+        <v>44017</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>гиршпрунга, пейрони, veisalgia, болезни, композиция</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="n">
         <v>44107.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>титанорганического, линейный, сшивающую, натрийсодержащего, глицерогидрогеля</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>44017</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>acc, антибактериальная, микобактериальных, патогенной, микрофлоры</t>
+          <t>pvrig, siglec, 15, анти, антитела</t>
         </is>
       </c>
     </row>
@@ -1182,44 +1182,44 @@
         <v>44107.8</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>замка, хомус, врн, хомусотерапия, музыкального</t>
+          <t>простациклина, дитерпенов, рамиприла, серрулатановых, лерканидипина</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
         <v>44107.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>чрезкожной, подходящее, диффузии, многопросветный, межтеловой</t>
+          <t>компакт, атомизации, мобильная, временного, чрескожного</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>44107.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>обменных, копыт, продолжительности, ветеринарных, противомикробные</t>
+          <t>микрохирургической, спинномозговой, расширенной, избытка, гидроцефалии</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>44198.6</v>
+        <v>44107.8</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>гонадотропин, высвобождающего, h3, сокристаллы, дрожжевой</t>
+          <t>фабри, перманганат, калия, кожного, пластырь</t>
         </is>
       </c>
       <c r="N13" s="2" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>proteus, pyogenes, чистых, klebsiella, faecalis</t>
+          <t>аннексину, а1, fxia, человеческому, концентрации</t>
         </is>
       </c>
     </row>
@@ -1242,55 +1242,55 @@
         <v>44198.6</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>вульводинии, сопутствующей, синаптопатии, треморов, гнойного</t>
+          <t>физиологически, рацекадотрил, бензодиазепина, интраназальное, длительного</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
         <v>44198.6</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>орбитального, нанокомпозитного, скуло, транссосудистой, зацеплением</t>
+          <t>спиральная, эмболизирующей, оплетки, катетерный, блоком</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>44198.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>грамотрицательными, лизобактина, грамположительными, бактериями, человеку</t>
+          <t>дренажа, торакоскопии, ране, однопортовой, лапороскопической</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>44289.4</v>
+        <v>44198.6</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>пролекарственные, сшитой, поперечно, гидрогеля, гиалуроновой</t>
+          <t>гнойного, гидраденита, лечение, витилиго, эндотелиальной</t>
         </is>
       </c>
       <c r="N14" s="2" t="n">
         <v>44289.4</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>санфетринем, нафто, ациллактилат, фракционированные, фузидовой</t>
+          <t>расположенные, 200, оснований, 160, prame</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1302,11 @@
         <v>44289.4</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>укачивания, 19а, потерей, альпорта, резервуарного</t>
+          <t>химиоэмболизации, acanthus, поступление, хондрогенеза, энзалутамид</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
@@ -1317,40 +1317,40 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>имплант, накладной, упакованный, мягкий, брахитерапевтических</t>
+          <t>гас, операторов, насосный, контейнером, насоса</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
         <v>44289.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>эндометритов, отитов, пса, нефрита, волчаночного</t>
+          <t>мм, антеградного, гидронефрозом, лоханочно, ампутации</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>44380.2</v>
+        <v>44289.4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>литиевые, инозина, глюконат, сиропа, пранобекс</t>
+          <t>резервуарного, илеита, фактором, стеноза, виллебранда</t>
         </is>
       </c>
       <c r="N15" s="2" t="n">
         <v>44380.2</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>литических, компонентами, потенцирование, рифамицина, имидазо</t>
+          <t>sost, переносимостью, tim, характеризующиеся, режимы</t>
         </is>
       </c>
     </row>
@@ -1362,11 +1362,11 @@
         <v>44380.2</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>насг, wx, ффв, эпизодов, седативных</t>
+          <t>геранил, таннины, гераниол, панакситриол, салидрозид</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
@@ -1377,40 +1377,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>антиадгезивного, волосяные, биоинертного, регулируемое, кольцо</t>
+          <t>поры, микропористой, открытием, растворителем, объемный</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>44380.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>свободнорадикальной, фуллерена, с60, ветеринарный, igg</t>
+          <t>пародонтите, хроническом, средней, тяжелой, степени</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>44471</v>
+        <v>44380.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>изофагомин, глюкоцереброзидазу, гликолевую, ацил, дипептидные</t>
+          <t>аксиального, используя, нерентгенографического, спондилоартрита, холестатического</t>
         </is>
       </c>
       <c r="N16" s="2" t="n">
-        <v>44471</v>
+        <v>44561.8</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>антибиотикам, антимикробная, устойчивости, композиция, композиции</t>
+          <t>mica, водные, стабильные, антител, составы</t>
         </is>
       </c>
     </row>
@@ -1422,11 +1422,11 @@
         <v>44471</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>эндотелиальной, синдром, запоров, хрупкой, недостаточность</t>
+          <t>пиротерапии, комбинезон, эпинефрина, sv, эластомерного</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
@@ -1437,40 +1437,40 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>элюирующее, человеческое, микропористую, межтеловой, биосовместимый</t>
+          <t>флакона, эмульгирования, змеевиковых, трубах, встроенными</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>44561.8</v>
+        <v>44471</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>дисбактериозов, сорбционное, фитосырья, пробиотико, комплексное</t>
+          <t>инвертированной, денервации, пеноскротальным, пенильной, папилломы</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>44561.8</v>
+        <v>44471</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>специфических, глюкопиранозиллипидные, смазывающее, стадию, гидроксибензоил</t>
+          <t>эндотелиальной, трихофитического, кратковременного, долговременного, запоров</t>
         </is>
       </c>
       <c r="N17" s="2" t="n">
-        <v>44561.8</v>
+        <v>44652.6</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>лизинов, aeruginosa, обладающих, pseudomonas, идентификация</t>
+          <t>аматоксином, неприродного, амантина, антителом, стабильная</t>
         </is>
       </c>
     </row>
@@ -1482,55 +1482,55 @@
         <v>44561.8</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>оксидативного, тетратиомолибдат, диагностические, толерантность, 7197</t>
+          <t>эндопептидазы, regel, лизиновую, амина, разрыхляющие</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>44561.8</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>стойки, инъектируемый, радиально, высушенная, импланта</t>
+          <t>емкостью, демпфер, гидравлический, вихревым, клапаны</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>44652.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>являющихся, энтерозоо, антистрессового, периода, контролирования</t>
+          <t>кальцифедиола, операцию, бариатрическую, сквозного, перенесших</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>44652.6</v>
+        <v>44561.8</v>
       </c>
       <c r="L18" t="n">
         <v>6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>гликозилфлавоноидов, глюкозидазы, ацилированное, гидроксибензоил, каприловой</t>
+          <t>остеосаркоме, тетратиомолибдат, толерантность, фарбера, анлотиниба</t>
         </is>
       </c>
       <c r="N18" s="2" t="n">
-        <v>44652.6</v>
+        <v>44743.4</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>baumannii, acinetobacter, происходящие, противомикробные, макроциклы</t>
+          <t>sirpα, fxia, высококонцентрированная, стабильная, новая</t>
         </is>
       </c>
     </row>
@@ -1542,55 +1542,55 @@
         <v>44652.6</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>нефробластоме, индольного, отеков, резекция, бевацизумаба</t>
+          <t>сепсисом, нефротоксического, brm, анальгетическое, лоперамида</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
         <v>44652.6</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>динамических, применять, антимикробное, пациентах, имплантировать</t>
+          <t>образующей, текучей, среды, упаковке, трубки</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>44743.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>вирусный, перитонит, инфекционный, ветеринарного, заболеванием</t>
+          <t>первоночальное, здоровое, врождённой, возврата, состояние</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>44743.4</v>
+        <v>44652.6</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>активатор, глюкокиназы, лучшей, бигуанидное, показаниям</t>
+          <t>крапивницы, щели, фенилкетонурии, забуференных, зияющей</t>
         </is>
       </c>
       <c r="N19" s="2" t="n">
-        <v>44743.4</v>
+        <v>44834.2</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>синергических, депсипептидного, количеств, грамположительных, счет</t>
+          <t>маркирующий, противолекарственных, fn14, trem, античеловеческого</t>
         </is>
       </c>
     </row>
@@ -1602,57 +1602,49 @@
         <v>44743.4</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ham, кокцидиальных, анемий, htlv, стероида</t>
+          <t>суппозитории, муколитический, tcp, антигиалуронидазной, карбоксипептидазами</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44743.4</v>
+        <v>44834.2</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>скуловых, скуловой, модульное, имплантов, направляющая</t>
+          <t>гидромассажа, перекачки, бесконтактного, текучей, среды</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>44834.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>неонатальным, fcrn, измененным, связыванием, ветеринарии</t>
+          <t>глоточной, гидронефроза, отсепаровки, теноновой, склеры</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>44834.2</v>
+        <v>44743.4</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>glycyrrhiza, эндемичного, glabra, адресной, очаг</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>44834.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>тетрациклиновых, ротавирусом, ферментированная, формула, неперевариваемыми</t>
-        </is>
-      </c>
+          <t>дисфагией, загущенная, больных, композиция, спондилоартрита</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1662,30 +1654,30 @@
         <v>44834.2</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>сепсисе, коагулопатией, нефролитиазом, низкоинтенсивная, обесцвеченных</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>44834.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>покрытия, имплантата, создания, его, устройство</t>
-        </is>
-      </c>
+          <t>эктоин, хондропротекторное, барьерного, слабокислотных, ранозаживляющим</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" s="2" t="n">
+        <v>44834.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>танатофобии, псориаза, розацеа, хряща, терапевтическое</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
